--- a/data/trans_dic/P3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda unifamiliar independiente</t>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,85%</t>
+          <t>56,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>56,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>54,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,77%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>51,58%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>51,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>50,61%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>43,03%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,88; 66,6</t>
+          <t>30,92; 73,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,54; 73,68</t>
+          <t>26,33; 75,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,81; 71,95</t>
+          <t>26,54; 75,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,7; 70,98</t>
+          <t>22,25; 75,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,42; 58,73</t>
+          <t>15,06; 62,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,1; 57,69</t>
+          <t>32,34; 59,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,78; 56,31</t>
+          <t>33,32; 62,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,75; 54,77</t>
+          <t>32,48; 60,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,69; 59,2</t>
+          <t>32,85; 61,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,95; 62,58</t>
+          <t>28,41; 59,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,83; 59,91</t>
+          <t>38,09; 62,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,34; 58,62</t>
+          <t>36,99; 63,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>36,85; 63,74</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33,87; 63,69</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26,53; 57,15</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>54,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>46,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>51,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>50,5%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>51,49%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>53,63%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,83; 57,04</t>
+          <t>44,26; 62,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,56; 57,2</t>
+          <t>44,74; 63,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,65; 57,63</t>
+          <t>45,4; 63,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,04; 57,25</t>
+          <t>45,44; 64,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,87; 53,55</t>
+          <t>51,29; 69,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,07; 54,81</t>
+          <t>41,0; 55,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,37; 53,0</t>
+          <t>40,73; 55,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,23; 53,61</t>
+          <t>38,79; 53,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,65; 53,01</t>
+          <t>39,62; 54,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,16; 54,01</t>
+          <t>39,11; 54,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,55; 53,54</t>
+          <t>45,77; 57,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,77; 53,4</t>
+          <t>45,72; 57,56</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>44,85; 56,49</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>45,83; 57,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>46,81; 59,7</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>45,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>42,1%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>41,3%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>41,1%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>39,8%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,81; 53,41</t>
+          <t>35,08; 52,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,58; 55,07</t>
+          <t>36,52; 54,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,43; 53,2</t>
+          <t>36,66; 55,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 53,61</t>
+          <t>38,76; 57,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,34; 44,04</t>
+          <t>32,6; 50,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,56; 45,61</t>
+          <t>32,65; 47,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,88; 43,31</t>
+          <t>32,82; 47,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 41,67</t>
+          <t>30,32; 45,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,72; 46,49</t>
+          <t>28,67; 43,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38,32; 47,98</t>
+          <t>31,12; 46,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,31; 46,24</t>
+          <t>35,91; 48,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,12; 46,12</t>
+          <t>36,46; 48,24</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>35,7; 47,85</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>35,5; 47,76</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>34,14; 45,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,74; 54,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,03; 56,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,73; 55,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,62; 55,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,5; 48,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,5; 49,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,27; 47,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,36; 46,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,25; 49,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,23; 51,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,87; 50,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>42,85; 49,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50,65%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51,52%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51,83%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52,75%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50,46%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44,6%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44,57%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43,5%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47,41%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47,79%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>47,48%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43,55; 56,86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43,63; 57,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44,38; 58,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45,04; 59,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41,84; 57,53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39,51; 49,55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39,55; 49,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37,7; 47,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37,27; 47,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37,75; 48,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43,42; 51,21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>43,6; 51,61</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>43,04; 51,29</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>43,4; 51,95</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>41,91; 51,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58629</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72588</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60162</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61742</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>71311</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54415</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>67391</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54019</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>57959</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>97197</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>113044</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>139979</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>114181</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>119700</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>168507</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31957; 76114</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33937; 96664</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27991; 79861</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25399; 86259</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26749; 111508</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38094; 70321</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47474; 88455</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37514; 69845</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40204; 75695</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60796; 128042</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84240; 137165</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>100385; 173117</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>81417; 140846</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>80105; 150652</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>103875; 223797</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>198518</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>236495</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>206800</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>222991</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>306870</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>189998</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>223654</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>175552</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>175893</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>232004</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>388517</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>460148</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>382352</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>398884</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>538875</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>161983; 228908</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>192155; 273701</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>170813; 240501</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>181533; 258738</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>261606; 353351</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>160169; 217145</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>189177; 258768</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>147739; 202968</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>148660; 204368</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>193473; 267687</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>346279; 432300</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>408748; 514573</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>339567; 427701</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>355021; 446953</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>470362; 599848</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>125394</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>150067</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>129086</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>131476</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>145412</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>142708</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>170439</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>129884</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>116276</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>152052</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>268102</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>320506</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>258970</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>247752</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>297464</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>100298; 150507</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>121571; 180684</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>103512; 155381</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106737; 157443</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>114069; 178319</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>117421; 170363</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>140589; 203697</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>104494; 156390</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>93863; 142856</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>123706; 185929</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>231831; 311034</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>277570; 367266</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>223848; 300029</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>214020; 287882</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>255184; 343787</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>382541</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>459150</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>396048</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>416208</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>523594</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>387122</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>461483</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>359455</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>350128</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>481253</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>769663</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>920634</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>755503</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>766336</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1004847</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>328941; 429421</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>388839; 515035</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>339111; 443144</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>355347; 470026</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>434108; 596983</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>342934; 430139</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>409481; 512588</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>317044; 400487</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>307480; 391803</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>417571; 541584</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>704774; 831261</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>840003; 994339</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>690814; 823357</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>700542; 838480</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>898518; 1096793</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
